--- a/outputs-r202/f__Saccharofermentanaceae.xlsx
+++ b/outputs-r202/f__Saccharofermentanaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__Firm-16</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__Firm-16</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>g__Saccharofermentans</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__Saccharofermentans</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>g__Saccharofermentans</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__Saccharofermentans</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -593,6 +613,11 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>g__Saccharofermentans</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>g__Saccharofermentans(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Saccharofermentanaceae.xlsx
+++ b/outputs-r202/f__Saccharofermentanaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,140 +484,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG251.fasta</t>
+          <t>RUG662.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.219841102129819e-14</v>
+        <v>0.0005062778872529325</v>
       </c>
       <c r="C2" t="n">
-        <v>2.219841102129819e-14</v>
+        <v>0.0005062778872529325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9974122303777248</v>
+        <v>0.0005062778872529325</v>
       </c>
       <c r="E2" t="n">
-        <v>2.219841102129819e-14</v>
+        <v>0.0005062778872529317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002587769622208651</v>
+        <v>0.9979748884509884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9974122303777248</v>
+        <v>0.9979748884509884</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__Firm-16</t>
+          <t>g__Saccharofermentans</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>g__Firm-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG428.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0004844984844966013</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0004844984844966013</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0004844984844966013</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0004844984844966005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9980620060620137</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9980620060620137</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>g__Saccharofermentans</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>g__Saccharofermentans</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG662.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0005647108474324327</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0005647108474324327</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0005647108474324322</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0005647108474324316</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9977411566102703</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9977411566102703</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>g__Saccharofermentans</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>g__Saccharofermentans</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG747.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.08203237234830144</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08203237234830144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08203237234830144</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.08203237234830148</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6718705106067943</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6718705106067943</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>g__Saccharofermentans</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>g__Saccharofermentans(reject)</t>
         </is>
       </c>
     </row>
